--- a/MVO_COATI/Test_1.xlsx
+++ b/MVO_COATI/Test_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ\ĐẠI HỌC\NCKH\MVO_COATI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A15A8B2-E0FA-4157-A26B-D59D4F70507C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194E927B-8596-4879-8E6C-5CED9C4F0683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E75EC2C8-FF90-4121-95C0-0B9174A13B92}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="48">
   <si>
     <t>Vòng lặp thứ 1</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>U3*</t>
-  </si>
-  <si>
-    <t>Công thức số 1</t>
   </si>
   <si>
     <t>NI</t>
@@ -530,16 +527,64 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -551,16 +596,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,52 +611,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1014,6 +1011,1557 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7302064" cy="1188659"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9582D567-380C-434B-A7B8-94D50CD58CDB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4724400" y="5600700"/>
+              <a:ext cx="7302064" cy="1188659"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>PHASE</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 2</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="left"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑙𝑏</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑙𝑜𝑐𝑎𝑙</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑙𝑏</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑗</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> ,</m:t>
+                    </m:r>
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑢𝑏</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑙𝑜𝑐𝑎𝑙</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> =</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑢𝑏</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑗</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> ,</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑤h𝑒𝑟𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑡</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=1,2,…, </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> (8)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="vi-VN" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑋</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="vi-VN" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="vi-VN" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                    <m:r>
+                      <a:rPr lang="vi-VN" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>: </m:t>
+                    </m:r>
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="vi-VN" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑋</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="vi-VN" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="vi-VN" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="vi-VN" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                    <m:r>
+                      <a:rPr lang="vi-VN" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1−2</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>∙</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑙𝑏</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑗</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑙𝑜𝑐𝑎𝑙</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∙</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSubSup>
+                              <m:sSubSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1400" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1400" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑢𝑏</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1400" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑗</m:t>
+                                </m:r>
+                              </m:sub>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1400" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑙𝑜𝑐𝑎𝑙</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSubSup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1400" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:sSubSup>
+                              <m:sSubSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1400" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1400" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑙𝑏</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1400" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑗</m:t>
+                                </m:r>
+                              </m:sub>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1400" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑙𝑜𝑐𝑎𝑙</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSubSup>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>, </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑖</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=1,2,…,</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑁</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> ;</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑗</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=1,2,…,</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑚</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> (9)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9582D567-380C-434B-A7B8-94D50CD58CDB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4724400" y="5600700"/>
+              <a:ext cx="7302064" cy="1188659"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>PHASE</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 2</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖𝑙𝑏〗_𝑗^𝑙𝑜𝑐𝑎𝑙=〖𝑙𝑏〗_𝑗/𝑡  ,〖𝑢𝑏〗_𝑗^𝑙𝑜𝑐𝑎𝑙  =〖𝑢𝑏〗_𝑗/𝑡  ,𝑤ℎ𝑒𝑟𝑒 𝑡=1,2,…, 𝑇 (8)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="vi-VN" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="vi-VN" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖^𝑃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="vi-VN" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="vi-VN" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="vi-VN" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑗)^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="vi-VN" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="vi-VN" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_(𝑖,𝑗)+(1−2𝑟)∙(〖𝑙𝑏〗_𝑗^𝑙𝑜𝑐𝑎𝑙+𝑟∙(〖𝑢𝑏〗_𝑗^𝑙𝑜𝑐𝑎𝑙−〖𝑙𝑏〗_𝑗^𝑙𝑜𝑐𝑎𝑙 )), 𝑖=1,2,…,𝑁 ;𝑗=1,2,…,𝑚 (9)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1340,8 +2888,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3935116" cy="563296"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1881,7 +3429,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2084,8 +3632,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3539687" cy="254172"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -2362,7 +3910,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -2433,8 +3981,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7302064" cy="1188659"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -3659,7 +5207,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -3996,8 +5544,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3771900" cy="933974"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -4446,7 +5994,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:sSub>
@@ -4729,7 +6276,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -5648,8 +7195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3879E7B1-C45A-44BD-9549-8678A42FEEE9}">
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5665,13 +7212,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="L1" t="s">
         <v>1</v>
       </c>
@@ -5693,10 +7240,10 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
@@ -5735,10 +7282,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="69"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="5">
         <v>0.18582755975031473</v>
       </c>
@@ -5781,10 +7328,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="69"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="5">
         <v>-0.70754726717776517</v>
       </c>
@@ -5827,10 +7374,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="71"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="5">
         <v>1.4017172929241921</v>
       </c>
@@ -5873,10 +7420,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="69"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="5">
         <v>-0.64438933152458588</v>
       </c>
@@ -5919,10 +7466,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="69"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="5">
         <v>-1.0156046021466558</v>
       </c>
@@ -5983,35 +7530,35 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="61"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
@@ -6021,10 +7568,10 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="62"/>
+      <c r="H14" s="49"/>
       <c r="I14" s="15" t="s">
         <v>6</v>
       </c>
@@ -6039,10 +7586,10 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="5">
         <v>1.4017172929241921</v>
       </c>
@@ -6052,10 +7599,10 @@
       <c r="E15" s="5">
         <v>-0.1271654891778855</v>
       </c>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="53"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="5">
         <v>1.4017172929241921</v>
       </c>
@@ -6072,10 +7619,10 @@
       <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="68"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="5">
         <v>0.18582755975031473</v>
       </c>
@@ -6105,10 +7652,10 @@
       <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="68"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="14">
         <v>1.4017172929241921</v>
       </c>
@@ -6138,10 +7685,10 @@
       <c r="M17" s="21"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="68"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="14">
         <v>0.18582755975031473</v>
       </c>
@@ -6171,10 +7718,10 @@
       <c r="M18" s="21"/>
     </row>
     <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="68"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="14">
         <v>0.644389331524586</v>
       </c>
@@ -6208,30 +7755,30 @@
       <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
     </row>
     <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47" t="s">
+      <c r="B23" s="57"/>
+      <c r="C23" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="63"/>
     </row>
     <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -6240,10 +7787,10 @@
       <c r="B24" s="9">
         <v>2</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -6255,23 +7802,23 @@
       <c r="F25" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="50" t="s">
+      <c r="G25" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="52"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
       <c r="J25" s="19" t="s">
         <v>29</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="65"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="5">
         <v>1.4017172929241921</v>
       </c>
@@ -6303,10 +7850,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="16">
         <v>0.18582755975031473</v>
       </c>
@@ -6335,10 +7882,10 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="64"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="16">
         <v>1.4017172929241921</v>
       </c>
@@ -6370,10 +7917,10 @@
       <c r="F29" s="28"/>
     </row>
     <row r="30" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="65"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="5">
         <v>1.2185955890142157</v>
       </c>
@@ -6386,18 +7933,16 @@
       <c r="F30" s="22">
         <v>0.86461047448878314</v>
       </c>
-      <c r="G30" s="66" t="s">
-        <v>35</v>
-      </c>
+      <c r="G30" s="66"/>
       <c r="H30" s="67"/>
       <c r="I30" s="67"/>
       <c r="J30" s="67"/>
     </row>
     <row r="31" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="64"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="16">
         <v>0.18582755975031473</v>
       </c>
@@ -6426,10 +7971,10 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="64"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="16">
         <v>0.644389331524586</v>
       </c>
@@ -6461,14 +8006,14 @@
       <c r="F33" s="28"/>
     </row>
     <row r="34" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="47"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="63"/>
       <c r="F34" s="28"/>
     </row>
     <row r="35" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -6479,20 +8024,20 @@
         <v>0.7334631462793646</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="29" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="36" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="65"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="16">
         <v>0.62557220411870851</v>
       </c>
@@ -6519,10 +8064,10 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="64"/>
+      <c r="B37" s="59"/>
       <c r="C37" s="16">
         <v>0.80330907215312108</v>
       </c>
@@ -6552,14 +8097,14 @@
         <v>0.4813140060867872</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="64"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="16">
         <v>0.54739557494070046</v>
       </c>
@@ -6589,14 +8134,14 @@
         <v>0.36731740322081791</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="64"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="16">
         <v>1.4017172929241921</v>
       </c>
@@ -6626,14 +8171,14 @@
         <v>0.47359589389979384</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="64" t="s">
+      <c r="A40" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="64"/>
+      <c r="B40" s="59"/>
       <c r="C40" s="16">
         <v>0.61442742075020429</v>
       </c>
@@ -6659,23 +8204,23 @@
         <v>0.15099001082970878</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
+      <c r="A43" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
     </row>
     <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="61" t="s">
+      <c r="A44" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="61"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="11" t="s">
         <v>6</v>
       </c>
@@ -6714,10 +8259,10 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="65"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="16">
         <v>0.62557220411870851</v>
       </c>
@@ -6761,10 +8306,10 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="64"/>
+      <c r="B46" s="59"/>
       <c r="C46" s="16">
         <v>0.80330907215312108</v>
       </c>
@@ -6808,10 +8353,10 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="64" t="s">
+      <c r="A47" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="64"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="16">
         <v>0.54739557494070046</v>
       </c>
@@ -6855,10 +8400,10 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="64" t="s">
+      <c r="A48" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="64"/>
+      <c r="B48" s="59"/>
       <c r="C48" s="16">
         <v>1.4017172929241921</v>
       </c>
@@ -6902,10 +8447,10 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="64" t="s">
+      <c r="A49" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="64"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="16">
         <v>0.17838709538492437</v>
       </c>
@@ -6967,26 +8512,26 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="59" t="s">
+      <c r="A53" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
     </row>
     <row r="54" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="61" t="s">
+      <c r="A54" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="61"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="11" t="s">
         <v>6</v>
       </c>
@@ -6996,10 +8541,10 @@
       <c r="E54" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="62" t="s">
+      <c r="G54" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="62"/>
+      <c r="H54" s="49"/>
       <c r="I54" s="15" t="s">
         <v>6</v>
       </c>
@@ -7014,10 +8559,10 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="65"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="16">
         <v>0.62557220411870851</v>
       </c>
@@ -7045,10 +8590,10 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="64" t="s">
+      <c r="A56" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="64"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="20">
         <v>0.54739557494070046</v>
       </c>
@@ -7077,10 +8622,10 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="64" t="s">
+      <c r="A57" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="64"/>
+      <c r="B57" s="59"/>
       <c r="C57" s="20">
         <v>0.17838709538492437</v>
       </c>
@@ -7090,10 +8635,10 @@
       <c r="E57" s="20">
         <v>-0.1271654891778855</v>
       </c>
-      <c r="G57" s="53" t="s">
+      <c r="G57" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H57" s="53"/>
+      <c r="H57" s="50"/>
       <c r="I57" s="16">
         <v>0.17838709538492437</v>
       </c>
@@ -7109,10 +8654,10 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="64" t="s">
+      <c r="A58" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="64"/>
+      <c r="B58" s="59"/>
       <c r="C58" s="20">
         <v>0.80330907215312108</v>
       </c>
@@ -7141,10 +8686,10 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="64"/>
+      <c r="B59" s="59"/>
       <c r="C59" s="20">
         <v>0.54739557494070046</v>
       </c>
@@ -7173,30 +8718,30 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="57" t="s">
+      <c r="A61" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="58"/>
-      <c r="L61" s="58"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
     </row>
     <row r="62" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="46"/>
-      <c r="C62" s="47" t="s">
+      <c r="B62" s="57"/>
+      <c r="C62" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="47"/>
+      <c r="D62" s="63"/>
     </row>
     <row r="63" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
@@ -7205,10 +8750,10 @@
       <c r="B63" s="9">
         <v>1</v>
       </c>
-      <c r="G63" s="48"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
     </row>
     <row r="64" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
@@ -7220,21 +8765,21 @@
       <c r="F64" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G64" s="50" t="s">
+      <c r="G64" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="H64" s="51"/>
-      <c r="I64" s="52"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="62"/>
       <c r="J64" s="19" t="s">
         <v>29</v>
       </c>
       <c r="K64" s="23"/>
     </row>
     <row r="65" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="43" t="s">
+      <c r="A65" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="44"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="16">
         <v>0.17838709538492437</v>
       </c>
@@ -7326,8 +8871,8 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="56"/>
-      <c r="B68" s="56"/>
+      <c r="A68" s="68"/>
+      <c r="B68" s="68"/>
       <c r="C68" s="34"/>
       <c r="D68" s="34"/>
       <c r="E68" s="34"/>
@@ -7337,10 +8882,10 @@
       <c r="I68" s="36"/>
     </row>
     <row r="69" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B69" s="44"/>
+      <c r="A69" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="48"/>
       <c r="C69" s="16">
         <v>0.9382418736473741</v>
       </c>
@@ -7420,19 +8965,19 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B73" s="46"/>
-      <c r="C73" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D73" s="47"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="63"/>
       <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="35" t="s">
         <v>45</v>
-      </c>
-      <c r="F73" s="35" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -7443,7 +8988,7 @@
         <v>0.14399193371423391</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E74" s="25">
         <f>-2/2</f>
@@ -7455,10 +9000,10 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="43" t="s">
+      <c r="A75" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="44"/>
+      <c r="B75" s="48"/>
       <c r="C75" s="16">
         <v>0.25701044041416332</v>
       </c>
@@ -7518,7 +9063,7 @@
         <v>0.15655297586036254</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -7553,7 +9098,7 @@
         <v>0.11695503904478433</v>
       </c>
       <c r="K77" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -7588,7 +9133,7 @@
         <v>0.15343495214012834</v>
       </c>
       <c r="K78" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -7623,23 +9168,23 @@
         <v>8.6769513734291634E-2</v>
       </c>
       <c r="K79" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="B81" s="63"/>
-      <c r="C81" s="63"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="63"/>
+      <c r="A81" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A82" s="61" t="s">
+      <c r="A82" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="61"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="11" t="s">
         <v>6</v>
       </c>
@@ -7678,10 +9223,10 @@
       </c>
     </row>
     <row r="83" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="54" t="s">
+      <c r="A83" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B83" s="55"/>
+      <c r="B83" s="70"/>
       <c r="C83" s="16">
         <v>0.25701044041416332</v>
       </c>
@@ -7725,10 +9270,10 @@
       </c>
     </row>
     <row r="84" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="54" t="s">
+      <c r="A84" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B84" s="55"/>
+      <c r="B84" s="70"/>
       <c r="C84" s="16">
         <v>0.17838709538492437</v>
       </c>
@@ -7772,10 +9317,10 @@
       </c>
     </row>
     <row r="85" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="45" t="s">
+      <c r="A85" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B85" s="45"/>
+      <c r="B85" s="71"/>
       <c r="C85" s="16">
         <v>0.24326555497625285</v>
       </c>
@@ -7819,10 +9364,10 @@
       </c>
     </row>
     <row r="86" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="45" t="s">
+      <c r="A86" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="45"/>
+      <c r="B86" s="71"/>
       <c r="C86" s="16">
         <v>0.24298860343367834</v>
       </c>
@@ -7866,10 +9411,10 @@
       </c>
     </row>
     <row r="87" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="45" t="s">
+      <c r="A87" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="45"/>
+      <c r="B87" s="71"/>
       <c r="C87" s="16">
         <v>0.80330907215312108</v>
       </c>
@@ -7931,26 +9476,26 @@
       </c>
     </row>
     <row r="91" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="59" t="s">
+      <c r="A91" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B91" s="60"/>
-      <c r="C91" s="60"/>
-      <c r="D91" s="60"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="60"/>
-      <c r="G91" s="60"/>
-      <c r="H91" s="60"/>
-      <c r="I91" s="60"/>
-      <c r="J91" s="60"/>
-      <c r="K91" s="60"/>
-      <c r="L91" s="60"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="54"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="54"/>
+      <c r="L91" s="54"/>
     </row>
     <row r="92" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="61" t="s">
+      <c r="A92" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="61"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="11" t="s">
         <v>6</v>
       </c>
@@ -7960,10 +9505,10 @@
       <c r="E92" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G92" s="62" t="s">
+      <c r="G92" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H92" s="62"/>
+      <c r="H92" s="49"/>
       <c r="I92" s="15" t="s">
         <v>6</v>
       </c>
@@ -7978,10 +9523,10 @@
       </c>
     </row>
     <row r="93" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="54" t="s">
+      <c r="A93" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="55"/>
+      <c r="B93" s="70"/>
       <c r="C93" s="16">
         <v>0.25701044041416332</v>
       </c>
@@ -7991,10 +9536,10 @@
       <c r="E93" s="16">
         <v>-0.11316721027710613</v>
       </c>
-      <c r="G93" s="43" t="s">
+      <c r="G93" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H93" s="44"/>
+      <c r="H93" s="48"/>
       <c r="I93" s="16">
         <v>0.25701044041416332</v>
       </c>
@@ -8010,10 +9555,10 @@
       </c>
     </row>
     <row r="94" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="54" t="s">
+      <c r="A94" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B94" s="55"/>
+      <c r="B94" s="70"/>
       <c r="C94" s="16">
         <v>0.17838709538492437</v>
       </c>
@@ -8023,10 +9568,10 @@
       <c r="E94" s="16">
         <v>-0.1271654891778855</v>
       </c>
-      <c r="G94" s="54" t="s">
+      <c r="G94" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="H94" s="55"/>
+      <c r="H94" s="70"/>
       <c r="I94" s="16">
         <v>0.17838709538492437</v>
       </c>
@@ -8042,10 +9587,10 @@
       </c>
     </row>
     <row r="95" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="45" t="s">
+      <c r="A95" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B95" s="45"/>
+      <c r="B95" s="71"/>
       <c r="C95" s="16">
         <v>0.24326555497625285</v>
       </c>
@@ -8055,10 +9600,10 @@
       <c r="E95" s="16">
         <v>-0.13449238725221174</v>
       </c>
-      <c r="G95" s="45" t="s">
+      <c r="G95" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="H95" s="45"/>
+      <c r="H95" s="71"/>
       <c r="I95" s="16">
         <v>0.24326555497625285</v>
       </c>
@@ -8074,10 +9619,10 @@
       </c>
     </row>
     <row r="96" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A96" s="45" t="s">
+      <c r="A96" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B96" s="45"/>
+      <c r="B96" s="71"/>
       <c r="C96" s="16">
         <v>0.24298860343367834</v>
       </c>
@@ -8087,10 +9632,10 @@
       <c r="E96" s="16">
         <v>2.356490361111041E-2</v>
       </c>
-      <c r="G96" s="45" t="s">
+      <c r="G96" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="H96" s="45"/>
+      <c r="H96" s="71"/>
       <c r="I96" s="16">
         <v>0.24298860343367834</v>
       </c>
@@ -8106,10 +9651,10 @@
       </c>
     </row>
     <row r="97" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A97" s="45" t="s">
+      <c r="A97" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B97" s="45"/>
+      <c r="B97" s="71"/>
       <c r="C97" s="20">
         <v>0.24326555497625299</v>
       </c>
@@ -8119,10 +9664,10 @@
       <c r="E97" s="20">
         <v>-0.113167210277106</v>
       </c>
-      <c r="G97" s="45" t="s">
+      <c r="G97" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="H97" s="45"/>
+      <c r="H97" s="71"/>
       <c r="I97" s="16">
         <v>0.24326555497625299</v>
       </c>
@@ -8138,30 +9683,30 @@
       </c>
     </row>
     <row r="99" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="57" t="s">
+      <c r="A99" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B99" s="58"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="58"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="58"/>
-      <c r="K99" s="58"/>
-      <c r="L99" s="58"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="56"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="56"/>
+      <c r="J99" s="56"/>
+      <c r="K99" s="56"/>
+      <c r="L99" s="56"/>
     </row>
     <row r="100" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="46" t="s">
+      <c r="A100" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B100" s="46"/>
-      <c r="C100" s="47" t="s">
+      <c r="B100" s="57"/>
+      <c r="C100" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="D100" s="47"/>
+      <c r="D100" s="63"/>
     </row>
     <row r="101" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
@@ -8170,10 +9715,10 @@
       <c r="B101" s="9">
         <v>1</v>
       </c>
-      <c r="G101" s="48"/>
-      <c r="H101" s="49"/>
-      <c r="I101" s="49"/>
-      <c r="J101" s="49"/>
+      <c r="G101" s="64"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="65"/>
+      <c r="J101" s="65"/>
     </row>
     <row r="102" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
@@ -8185,21 +9730,21 @@
       <c r="F102" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G102" s="50" t="s">
+      <c r="G102" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="H102" s="51"/>
-      <c r="I102" s="52"/>
+      <c r="H102" s="61"/>
+      <c r="I102" s="62"/>
       <c r="J102" s="19" t="s">
         <v>29</v>
       </c>
       <c r="K102" s="23"/>
     </row>
     <row r="103" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="53" t="s">
+      <c r="A103" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B103" s="53"/>
+      <c r="B103" s="50"/>
       <c r="C103" s="16">
         <v>0.25701044041416332</v>
       </c>
@@ -8298,8 +9843,8 @@
       </c>
     </row>
     <row r="106" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="56"/>
-      <c r="B106" s="56"/>
+      <c r="A106" s="68"/>
+      <c r="B106" s="68"/>
       <c r="C106" s="34"/>
       <c r="D106" s="34"/>
       <c r="E106" s="34"/>
@@ -8308,10 +9853,10 @@
       <c r="I106" s="36"/>
     </row>
     <row r="107" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A107" s="43" t="s">
+      <c r="A107" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B107" s="44"/>
+      <c r="B107" s="48"/>
       <c r="C107" s="16">
         <v>-1.5029403822761931</v>
       </c>
@@ -8391,19 +9936,19 @@
       </c>
     </row>
     <row r="111" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A111" s="46" t="s">
+      <c r="A111" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B111" s="46"/>
-      <c r="C111" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D111" s="47"/>
+      <c r="B111" s="57"/>
+      <c r="C111" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" s="63"/>
       <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" s="35" t="s">
         <v>45</v>
-      </c>
-      <c r="F111" s="35" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -8414,7 +9959,7 @@
         <v>0.1683832781252943</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E112" s="25">
         <f>-2/3</f>
@@ -8426,10 +9971,10 @@
       </c>
     </row>
     <row r="113" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="43" t="s">
+      <c r="A113" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B113" s="44"/>
+      <c r="B113" s="48"/>
       <c r="C113" s="16">
         <v>0.25701044041416332</v>
       </c>
@@ -8489,7 +10034,7 @@
         <v>0.1140632389939422</v>
       </c>
       <c r="K114" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -8524,7 +10069,7 @@
         <v>6.3982599639350851E-2</v>
       </c>
       <c r="K115" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -8559,7 +10104,7 @@
         <v>5.2932332647294056E-3</v>
       </c>
       <c r="K116" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -8594,23 +10139,23 @@
         <v>0.40914338249634874</v>
       </c>
       <c r="K117" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B119" s="63"/>
-      <c r="C119" s="63"/>
-      <c r="D119" s="63"/>
-      <c r="E119" s="63"/>
+      <c r="A119" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B119" s="43"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="43"/>
+      <c r="E119" s="43"/>
     </row>
     <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A120" s="61" t="s">
+      <c r="A120" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B120" s="61"/>
+      <c r="B120" s="44"/>
       <c r="C120" s="11" t="s">
         <v>6</v>
       </c>
@@ -8625,10 +10170,10 @@
       </c>
     </row>
     <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A121" s="43" t="s">
+      <c r="A121" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B121" s="44"/>
+      <c r="B121" s="48"/>
       <c r="C121" s="16">
         <v>0.25701044041416332</v>
       </c>
@@ -8721,6 +10266,107 @@
     </row>
   </sheetData>
   <mergeCells count="125">
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="G101:J101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="A99:L99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A91:L91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A122:B122"/>
     <mergeCell ref="A123:B123"/>
     <mergeCell ref="A124:B124"/>
@@ -8734,19 +10380,6 @@
     <mergeCell ref="A119:E119"/>
     <mergeCell ref="A120:B120"/>
     <mergeCell ref="A121:B121"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A12:L12"/>
     <mergeCell ref="A21:L21"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A26:B26"/>
@@ -8754,98 +10387,10 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A91:L91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G101:J101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="A99:L99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="A113:B113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
